--- a/_ETC/time-estimates/patient-counts.xlsx
+++ b/_ETC/time-estimates/patient-counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_WORKSPACES\_ECLIPSE_WORKSPACE\workspace\GPPRL\_ETC\time-estimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205AEC93-620B-47A3-A86E-9603B34AE9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78774336-44D1-4B73-A810-8E6DA43598CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t># of calculations</t>
   </si>
   <si>
-    <t># sum of calculations</t>
-  </si>
-  <si>
     <t>% observed</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>days</t>
+  </si>
+  <si>
+    <t>sum of calculations</t>
   </si>
 </sst>
 </file>
@@ -957,17 +957,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="9"/>
-    <col min="2" max="2" width="13.77734375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="12"/>
-    <col min="10" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.33203125" style="9"/>
+    <col min="2" max="2" width="13.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="9"/>
+    <col min="4" max="4" width="17.33203125" style="10"/>
+    <col min="5" max="5" width="20" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="9"/>
+    <col min="7" max="7" width="14" style="11" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="17.33203125" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
@@ -981,19 +982,19 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">

--- a/_ETC/time-estimates/patient-counts.xlsx
+++ b/_ETC/time-estimates/patient-counts.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_WORKSPACES\_ECLIPSE_WORKSPACE\workspace\GPPRL\_ETC\time-estimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78774336-44D1-4B73-A810-8E6DA43598CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7F1A56-9E96-48B3-A302-3D2713520344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-16380" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="patient-counts" sheetId="1" r:id="rId1"/>
+    <sheet name="all-smalls" sheetId="4" r:id="rId1"/>
+    <sheet name="all-smalls-benchmarks" sheetId="2" r:id="rId2"/>
+    <sheet name="patient-counts" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>chpr.zip</t>
   </si>
@@ -64,9 +66,6 @@
     <t># of patients</t>
   </si>
   <si>
-    <t># of calculations</t>
-  </si>
-  <si>
     <t>% observed</t>
   </si>
   <si>
@@ -79,14 +78,41 @@
     <t>days</t>
   </si>
   <si>
-    <t>sum of calculations</t>
+    <t># added</t>
+  </si>
+  <si>
+    <t>total comparisons</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>John's Laptop (10 workers)</t>
+  </si>
+  <si>
+    <t>AWS Windows c5.metal (old config 20 workers)</t>
+  </si>
+  <si>
+    <t>AWS Windows c5.metal (NEW config, not S3, 40 workers)</t>
+  </si>
+  <si>
+    <t>Linux (c5a.8xlarge instance running Ubuntu 20.04)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +243,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -584,7 +617,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -592,12 +625,13 @@
     <xf numFmtId="2" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -952,23 +986,212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5036F0B-51D0-4463-A3B3-C2D334E81D8A}">
+  <dimension ref="B2:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" style="8"/>
+    <col min="2" max="2" width="13.6640625" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="17.33203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5ABD988-C203-4F7D-A794-81FD3B0329C3}">
+  <dimension ref="B2:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="50.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5">
+        <v>18052</v>
+      </c>
+      <c r="D3" s="7">
+        <f>C3/60</f>
+        <v>300.86666666666667</v>
+      </c>
+      <c r="E3" s="7">
+        <f>D3/60</f>
+        <v>5.0144444444444449</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5814</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:E4" si="0">C4/60</f>
+        <v>96.9</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>1.615</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5179</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:E6" si="1">C5/60</f>
+        <v>86.316666666666663</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="1"/>
+        <v>1.4386111111111111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10800</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="9"/>
-    <col min="2" max="2" width="13.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="9"/>
-    <col min="4" max="4" width="17.33203125" style="10"/>
-    <col min="5" max="5" width="20" style="10" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="9"/>
-    <col min="7" max="7" width="14" style="11" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="17.33203125" style="9"/>
+    <col min="1" max="1" width="17.33203125" style="8"/>
+    <col min="2" max="2" width="13.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="8"/>
+    <col min="4" max="4" width="17.33203125" style="9"/>
+    <col min="5" max="5" width="20" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="8"/>
+    <col min="7" max="7" width="14" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="17.33203125" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
@@ -979,22 +1202,22 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
@@ -1005,25 +1228,25 @@
         <v>3000000</v>
       </c>
       <c r="D3" s="6">
-        <f>SUM(C4:C10)*C3</f>
+        <f>C3*SUM(C4:C12)</f>
         <v>12093000000000</v>
       </c>
       <c r="E3" s="6">
-        <f>SUM(D3,E4)</f>
+        <f>SUM(D3:D11)</f>
         <v>15596550000000</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G4" si="0">E3/$E$5*100</f>
-        <v>3798.9404457435148</v>
-      </c>
-      <c r="H3" s="8">
-        <f t="shared" ref="H3:H10" si="1">$F$5*G3/100</f>
-        <v>189.94702228717574</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="G3" s="12">
+        <f>E3/$E$5</f>
+        <v>37.98940445743515</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H4" si="0">$F$5*G3</f>
+        <v>56.984106686152728</v>
+      </c>
+      <c r="I3" s="7">
         <f>H3/24</f>
-        <v>7.9144592619656562</v>
+        <v>2.3743377785896969</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
@@ -1034,25 +1257,25 @@
         <v>3000000</v>
       </c>
       <c r="D4" s="6">
-        <f>SUM(C5:C11)*C4</f>
+        <f>C4*SUM(C5:C13)</f>
         <v>3093000000000</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:E6" si="2">SUM(D4,E5)</f>
+        <f>SUM(D4:D12)</f>
         <v>3503550000000</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="7">
+      <c r="G4" s="12">
+        <f>E4/$E$5</f>
+        <v>8.5337961271465108</v>
+      </c>
+      <c r="H4" s="7">
         <f t="shared" si="0"/>
-        <v>853.3796127146511</v>
-      </c>
-      <c r="H4" s="8">
-        <f t="shared" si="1"/>
-        <v>42.668980635732552</v>
-      </c>
-      <c r="I4" s="8">
-        <f t="shared" ref="I4:I10" si="3">H4/24</f>
-        <v>1.7778741931555231</v>
+        <v>12.800694190719767</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" ref="I4:I9" si="1">H4/24</f>
+        <v>0.53336225794665693</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -1063,27 +1286,27 @@
         <v>325000</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" ref="D5:D9" si="4">SUM(C6:C12)*C5</f>
+        <f>C5*SUM(C6:C14)</f>
         <v>229450000000</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(D5:D13)</f>
         <v>410550000000</v>
       </c>
       <c r="F5" s="5">
-        <v>5</v>
-      </c>
-      <c r="G5" s="7">
-        <f>E5/$E$5*100</f>
-        <v>100</v>
-      </c>
-      <c r="H5" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="12">
+        <f>E5/$E$5</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <f>$F$5*G5</f>
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I5" s="8">
-        <f t="shared" si="3"/>
-        <v>0.20833333333333334</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -1094,25 +1317,25 @@
         <v>250000</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="4"/>
+        <f>C6*SUM(C7:C15)</f>
         <v>114000000000</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(D6:D14)</f>
         <v>181100000000</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="7">
-        <f t="shared" ref="G6:G10" si="5">E6/$E$5*100</f>
-        <v>44.111557666544876</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="G6" s="12">
+        <f>E6/$E$5</f>
+        <v>0.44111557666544876</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" ref="H6:H9" si="2">$F$5*G6</f>
+        <v>0.6616733649981732</v>
+      </c>
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
-        <v>2.2055778833272437</v>
-      </c>
-      <c r="I6" s="8">
-        <f t="shared" si="3"/>
-        <v>9.1899078471968487E-2</v>
+        <v>2.7569723541590551E-2</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -1123,25 +1346,25 @@
         <v>200000</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="4"/>
+        <f>C7*SUM(C8:C16)</f>
         <v>51200000000</v>
       </c>
       <c r="E7" s="6">
-        <f>SUM(D7,E8)</f>
+        <f>SUM(D7:D15)</f>
         <v>67100000000</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="7">
-        <f t="shared" si="5"/>
-        <v>16.343928875898186</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G7" s="12">
+        <f>E7/$E$5</f>
+        <v>0.16343928875898187</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="2"/>
+        <v>0.24515893313847281</v>
+      </c>
+      <c r="I7" s="7">
         <f t="shared" si="1"/>
-        <v>0.8171964437949093</v>
-      </c>
-      <c r="I7" s="8">
-        <f t="shared" si="3"/>
-        <v>3.404985182478789E-2</v>
+        <v>1.0214955547436367E-2</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
@@ -1152,25 +1375,25 @@
         <v>160000</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="4"/>
+        <f>C8*SUM(C9:C17)</f>
         <v>15360000000</v>
       </c>
       <c r="E8" s="6">
-        <f>SUM(D8,E9)</f>
+        <f>SUM(D8:D16)</f>
         <v>15900000000</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="7">
-        <f t="shared" si="5"/>
-        <v>3.8728534892217761</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="G8" s="12">
+        <f t="shared" ref="G8:G9" si="3">E8/$E$5</f>
+        <v>3.872853489221776E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="2"/>
+        <v>5.8092802338326643E-2</v>
+      </c>
+      <c r="I8" s="7">
         <f t="shared" si="1"/>
-        <v>0.19364267446108879</v>
-      </c>
-      <c r="I8" s="8">
-        <f t="shared" si="3"/>
-        <v>8.0684447692120336E-3</v>
+        <v>2.42053343076361E-3</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -1181,25 +1404,25 @@
         <v>90000</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="4"/>
+        <f>C9*C10</f>
         <v>540000000</v>
       </c>
       <c r="E9" s="6">
-        <f>SUM(D9:D10)</f>
+        <f>SUM(D9:D17)</f>
         <v>540000000</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.13153087321885276</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="G9" s="12">
+        <f t="shared" si="3"/>
+        <v>1.3153087321885275E-3</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="2"/>
+        <v>1.9729630982827911E-3</v>
+      </c>
+      <c r="I9" s="7">
         <f t="shared" si="1"/>
-        <v>6.5765436609426372E-3</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="3"/>
-        <v>2.7402265253927653E-4</v>
+        <v>8.2206795761782957E-5</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -1209,26 +1432,12 @@
       <c r="C10" s="5">
         <v>6000</v>
       </c>
-      <c r="D10" s="6">
-        <f>SUM(C11:C17)*C10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
